--- a/cvpr_submission/experiments/reasoning_transfer_COG_RESULTS.xlsx
+++ b/cvpr_submission/experiments/reasoning_transfer_COG_RESULTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayram/research/Topic/Machine Intelligence/Visual Reasoning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmarois/repos/mi-visual-reasoning-pubs/cvpr_submission/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02E15D72-177A-864F-B35D-97DC1C9DB0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA238134-F095-D246-A2E0-141BAA0984EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21140" activeTab="1" xr2:uid="{4BA6BB31-2F0E-4947-A980-9A98EA29CC77}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{4BA6BB31-2F0E-4947-A980-9A98EA29CC77}"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="1" r:id="rId1"/>
@@ -441,9 +441,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.17183621421213371"/>
-          <c:y val="0.22783200135844403"/>
+          <c:y val="4.328652384222486E-2"/>
           <c:w val="0.7556099309768971"/>
-          <c:h val="0.51674040475257577"/>
+          <c:h val="0.7860337979076637"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -465,32 +465,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -512,7 +489,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -648,7 +625,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -758,13 +735,11 @@
             <a:pattFill prst="pct5">
               <a:fgClr>
                 <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg2"/>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
@@ -788,7 +763,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
@@ -889,7 +864,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
+        <c:gapWidth val="50"/>
         <c:axId val="1045665712"/>
         <c:axId val="1044348288"/>
       </c:barChart>
@@ -1009,8 +984,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0059629121912851E-2"/>
-          <c:y val="0.85449639009892209"/>
+          <c:x val="0.12449285035934494"/>
+          <c:y val="0.92298572466866891"/>
           <c:w val="0.78185866875102061"/>
           <c:h val="5.7783034552774108E-2"/>
         </c:manualLayout>
@@ -1057,12 +1032,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1597,16 +1567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>202774</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>128068</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>458908</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>757731</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>10672</xdr:rowOff>
+      <xdr:colOff>192101</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2620,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47349DBF-8E4A-314D-8482-46100F956523}">
   <dimension ref="A3:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/cvpr_submission/experiments/reasoning_transfer_COG_RESULTS.xlsx
+++ b/cvpr_submission/experiments/reasoning_transfer_COG_RESULTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmarois/repos/mi-visual-reasoning-pubs/cvpr_submission/experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayram/research/Topic/Machine Intelligence/Visual Reasoning/cvpr_submission/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA238134-F095-D246-A2E0-141BAA0984EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF21254-C941-1348-86C6-ECFF10B3AEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="1" xr2:uid="{4BA6BB31-2F0E-4947-A980-9A98EA29CC77}"/>
   </bookViews>
@@ -160,10 +160,10 @@
     <t>All-tasks training</t>
   </si>
   <si>
-    <t>Joint training</t>
-  </si>
-  <si>
     <t>Obj-Attr</t>
+  </si>
+  <si>
+    <t>Group A/B Training</t>
   </si>
 </sst>
 </file>
@@ -356,9 +356,6 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,6 +387,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,7 +451,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -459,15 +459,24 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Single-task training</c:v>
+                  <c:v>All-tasks training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -491,7 +500,7 @@
                 <a:pPr>
                   <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -558,26 +567,26 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99985214889999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58589999999999998</c:v>
+                  <c:v>0.97033816616666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99680000000000002</c:v>
+                  <c:v>0.99591481312499996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68559999999999999</c:v>
+                  <c:v>0.95671318045999987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96679999999999999</c:v>
+                  <c:v>0.98294628853333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1627-F749-8276-E1B6F089D884}"/>
+              <c16:uniqueId val="{00000002-1627-F749-8276-E1B6F089D884}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -590,7 +599,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Joint training</c:v>
+                  <c:v>Group A/B Training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -718,7 +727,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -726,22 +735,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>All-tasks training</c:v>
+                  <c:v>Single-task training</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg2"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +767,7 @@
                 <a:pPr>
                   <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -832,26 +834,26 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99985214889999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97033816616666668</c:v>
+                  <c:v>0.58589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99591481312499996</c:v>
+                  <c:v>0.99680000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95671318045999987</c:v>
+                  <c:v>0.68559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98294628853333332</c:v>
+                  <c:v>0.96679999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1627-F749-8276-E1B6F089D884}"/>
+              <c16:uniqueId val="{00000000-1627-F749-8276-E1B6F089D884}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1055,7 +1057,676 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>barcharts!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single-task training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>barcharts!$A$24:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Obj-Attr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cognitive</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spatial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barcharts!$D$24:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96679999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BEE-8949-850F-7B42310DFB0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>barcharts!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group A/B Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>barcharts!$A$24:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Obj-Attr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cognitive</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spatial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barcharts!$C$24:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99978078699999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92251534381666656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99181203065000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97094844243333345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96426638503999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BEE-8949-850F-7B42310DFB0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>barcharts!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All-tasks training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>barcharts!$A$24:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Obj-Attr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cognitive</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spatial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>barcharts!$B$24:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99985214889999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97033816616666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99591481312499996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95671318045999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98294628853333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BEE-8949-850F-7B42310DFB0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1046966016"/>
+        <c:axId val="1046967648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1046966016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1046967648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1046967648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1046966016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1563,20 +2234,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>458908</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>55518</xdr:rowOff>
+      <xdr:colOff>769353</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>192101</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:colOff>502546</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1596,6 +2772,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388057</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD3563B-D335-8A4F-AF89-E42296FF6FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1957,11 +3169,11 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="str">
+      <c r="A2" s="16" t="str">
         <f>"Compare + Basic: "&amp;ROUND(AVERAGE(C2:C16) * 100, 2)&amp; "%"</f>
         <v>Compare + Basic: 96.67%</v>
       </c>
-      <c r="B2" s="19" t="str">
+      <c r="B2" s="18" t="str">
         <f>"Basic: "&amp;ROUND(AVERAGE(C2:C6) * 100, 1)&amp; "%"</f>
         <v>Basic: 100%</v>
       </c>
@@ -1969,10 +3181,10 @@
         <v>0.99980200630000005</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
@@ -1982,11 +3194,11 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="26">
         <f>AVERAGE(I2:I6)</f>
         <v>0.99985214889999996</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="M2" t="s">
@@ -1994,14 +3206,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6">
         <v>0.99997800069999998</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" t="s">
         <v>19</v>
@@ -2009,21 +3221,21 @@
       <c r="I3" s="2">
         <v>0.99990595540000005</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="6">
         <v>0.99975800770000001</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="3"/>
       <c r="H4" t="s">
         <v>17</v>
@@ -2031,21 +3243,21 @@
       <c r="I4" s="2">
         <v>0.99988277219999999</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="6">
         <v>0.99962382149999995</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="3"/>
       <c r="H5" t="s">
         <v>7</v>
@@ -2053,21 +3265,21 @@
       <c r="I5" s="2">
         <v>0.99975800770000001</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="8">
         <v>0.99974209879999998</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
         <v>6</v>
@@ -2075,8 +3287,8 @@
       <c r="I6" s="2">
         <v>0.99971400919999998</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="L6" s="16" t="s">
+      <c r="J6" s="15"/>
+      <c r="L6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M6" t="s">
@@ -2084,8 +3296,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="22" t="str">
+      <c r="A7" s="16"/>
+      <c r="B7" s="21" t="str">
         <f>"Compare 2 Objects: "&amp;ROUND(AVERAGE(C7:C12) * 100, 1)&amp; "%"</f>
         <v>Compare 2 Objects: 92.3%</v>
       </c>
@@ -2093,10 +3305,10 @@
         <v>0.99842408559999996</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>0.58589999999999998</v>
       </c>
       <c r="G7" s="3"/>
@@ -2106,24 +3318,24 @@
       <c r="I7" s="2">
         <v>0.99945901449999996</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="26">
         <f>AVERAGE(I7:I12)</f>
         <v>0.97033816616666668</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="15"/>
       <c r="M7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="6">
         <v>0.99195256249999997</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
         <v>14</v>
@@ -2131,21 +3343,21 @@
       <c r="I8" s="2">
         <v>0.99402324819999999</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="26"/>
+      <c r="L8" s="15"/>
       <c r="M8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="6">
         <v>0.97622512149999996</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="3"/>
       <c r="H9" t="s">
         <v>4</v>
@@ -2153,21 +3365,21 @@
       <c r="I9" s="2">
         <v>0.98118233160000001</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="26"/>
+      <c r="L9" s="15"/>
       <c r="M9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="6">
         <v>0.97538811989999996</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="3"/>
       <c r="H10" t="s">
         <v>5</v>
@@ -2175,21 +3387,21 @@
       <c r="I10" s="2">
         <v>0.9804640107</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="26"/>
+      <c r="L10" s="15"/>
       <c r="M10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="6">
         <v>0.79776099469999995</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="3"/>
       <c r="H11" t="s">
         <v>0</v>
@@ -2197,21 +3409,21 @@
       <c r="I11" s="2">
         <v>0.93489399939999995</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="26"/>
+      <c r="L11" s="15"/>
       <c r="M11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="8">
         <v>0.79534117869999998</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="3"/>
       <c r="H12" t="s">
         <v>1</v>
@@ -2219,15 +3431,15 @@
       <c r="I12" s="2">
         <v>0.93200639259999996</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="L12" s="16"/>
+      <c r="J12" s="26"/>
+      <c r="L12" s="15"/>
       <c r="M12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="22" t="str">
+      <c r="A13" s="16"/>
+      <c r="B13" s="21" t="str">
         <f>"Compare Obj Attr: "&amp;ROUND(AVERAGE(C13:C16) * 100, 1)&amp; "%"</f>
         <v>Compare Obj Attr: 99.2%</v>
       </c>
@@ -2235,10 +3447,10 @@
         <v>0.99922642350000002</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>0.99680000000000002</v>
       </c>
       <c r="G13" s="3"/>
@@ -2248,24 +3460,24 @@
       <c r="I13" s="2">
         <v>0.99981246629999998</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="26">
         <f>AVERAGE(I13:I16)</f>
         <v>0.99591481312499996</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="15"/>
       <c r="M13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="6">
         <v>0.99906052560000003</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="3"/>
       <c r="H14" t="s">
         <v>21</v>
@@ -2273,21 +3485,21 @@
       <c r="I14" s="2">
         <v>0.99938934170000004</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="6">
         <v>0.98497561430000002</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="3"/>
       <c r="H15" t="s">
         <v>3</v>
@@ -2295,21 +3507,21 @@
       <c r="I15" s="2">
         <v>0.99248780709999995</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="8">
         <v>0.98398555919999997</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="3"/>
       <c r="H16" t="s">
         <v>2</v>
@@ -2317,18 +3529,18 @@
       <c r="I16" s="2">
         <v>0.99196963739999999</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="str">
+      <c r="A17" s="24" t="str">
         <f>"Spatial + Cognitive: "&amp;ROUND(AVERAGE(C17:C24) * 100, 2)&amp; "%"</f>
         <v>Spatial + Cognitive: 96.68%</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="21" t="str">
         <f>"Spatial: "&amp;ROUND(AVERAGE(C17:C21) * 100, 1)&amp; "%"</f>
         <v>Spatial: 96.4%</v>
       </c>
@@ -2336,10 +3548,10 @@
         <v>0.96315356600000002</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>0.96679999999999999</v>
       </c>
       <c r="G17" s="3"/>
@@ -2349,11 +3561,11 @@
       <c r="I17" s="2">
         <v>0.95311949240000005</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="26">
         <f>AVERAGE(I17:I21)</f>
         <v>0.95671318045999987</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>30</v>
       </c>
       <c r="M17" t="s">
@@ -2361,14 +3573,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="9">
         <v>0.95398338680000005</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="3"/>
       <c r="H18" t="s">
         <v>9</v>
@@ -2376,21 +3588,21 @@
       <c r="I18" s="2">
         <v>0.94067396640000001</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="15"/>
       <c r="M18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="6">
         <v>0.94789975289999995</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="3"/>
       <c r="H19" t="s">
         <v>15</v>
@@ -2398,21 +3610,21 @@
       <c r="I19" s="2">
         <v>0.93500411809999995</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="L19" s="15"/>
       <c r="M19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="9">
         <v>0.97951672670000001</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="3"/>
       <c r="H20" t="s">
         <v>18</v>
@@ -2420,21 +3632,21 @@
       <c r="I20" s="2">
         <v>0.97992283869999997</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="L20" s="15"/>
       <c r="M20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="9">
         <v>0.97677849279999995</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="3"/>
       <c r="H21" t="s">
         <v>20</v>
@@ -2442,8 +3654,8 @@
       <c r="I21" s="2">
         <v>0.97484548670000004</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="L21" s="16" t="s">
+      <c r="J21" s="15"/>
+      <c r="L21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="M21" t="s">
@@ -2451,8 +3663,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="23" t="str">
+      <c r="A22" s="16"/>
+      <c r="B22" s="22" t="str">
         <f>"Cognitive: "&amp;ROUND(AVERAGE(C22:C24) * 100, 1)&amp; "%"</f>
         <v>Cognitive: 97.1%</v>
       </c>
@@ -2460,10 +3672,10 @@
         <v>0.96339317140000003</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>0.68559999999999999</v>
       </c>
       <c r="G22" s="3"/>
@@ -2473,24 +3685,24 @@
       <c r="I22" s="2">
         <v>0.9945441746</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="26">
         <f>AVERAGE(I22:I24)</f>
         <v>0.98294628853333332</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="15"/>
       <c r="M22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="6">
         <v>0.97386483629999998</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="3"/>
       <c r="H23" t="s">
         <v>12</v>
@@ -2498,21 +3710,21 @@
       <c r="I23" s="2">
         <v>0.98160858849999999</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="L23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="8">
         <v>0.9755873196</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="26"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="3"/>
       <c r="H24" t="s">
         <v>11</v>
@@ -2520,8 +3732,8 @@
       <c r="I24" s="2">
         <v>0.97268610249999998</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="L24" s="15"/>
       <c r="M24" t="s">
         <v>3</v>
       </c>
@@ -2551,6 +3763,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E21"/>
     <mergeCell ref="L21:L24"/>
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="L6:L16"/>
@@ -2567,16 +3789,6 @@
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="F17:F21"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="J22:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2591,15 +3803,15 @@
   <dimension ref="A3:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="11" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
@@ -2711,13 +3923,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2725,16 +3937,16 @@
         <v>29</v>
       </c>
       <c r="B24" s="14">
-        <f>numbers!F2</f>
-        <v>1</v>
+        <f>numbers!J2</f>
+        <v>0.99985214889999996</v>
       </c>
       <c r="C24" s="14">
         <f>AVERAGE(numbers!C2:C6)</f>
         <v>0.99978078699999995</v>
       </c>
       <c r="D24" s="14">
-        <f>numbers!J2</f>
-        <v>0.99985214889999996</v>
+        <f>numbers!F2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2742,33 +3954,33 @@
         <v>25</v>
       </c>
       <c r="B25" s="14">
-        <f>numbers!F7</f>
-        <v>0.58589999999999998</v>
+        <f>numbers!J7</f>
+        <v>0.97033816616666668</v>
       </c>
       <c r="C25" s="14">
         <f>AVERAGE(numbers!C7:C12)</f>
         <v>0.92251534381666656</v>
       </c>
       <c r="D25" s="14">
-        <f>numbers!J7</f>
-        <v>0.97033816616666668</v>
+        <f>numbers!F7</f>
+        <v>0.58589999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="14">
-        <f>numbers!F13</f>
-        <v>0.99680000000000002</v>
+        <f>numbers!J13</f>
+        <v>0.99591481312499996</v>
       </c>
       <c r="C26" s="14">
         <f>AVERAGE(numbers!C13:C16)</f>
         <v>0.99181203065000001</v>
       </c>
       <c r="D26" s="14">
-        <f>numbers!J13</f>
-        <v>0.99591481312499996</v>
+        <f>numbers!F13</f>
+        <v>0.99680000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,16 +3988,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="14">
-        <f>numbers!F22</f>
-        <v>0.68559999999999999</v>
+        <f>numbers!J17</f>
+        <v>0.95671318045999987</v>
       </c>
       <c r="C27" s="14">
         <f>AVERAGE(numbers!C22:C24)</f>
         <v>0.97094844243333345</v>
       </c>
       <c r="D27" s="14">
-        <f>numbers!J17</f>
-        <v>0.95671318045999987</v>
+        <f>numbers!F22</f>
+        <v>0.68559999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2793,16 +4005,16 @@
         <v>33</v>
       </c>
       <c r="B28" s="14">
-        <f>numbers!F17</f>
-        <v>0.96679999999999999</v>
+        <f>numbers!J22</f>
+        <v>0.98294628853333332</v>
       </c>
       <c r="C28" s="14">
         <f>AVERAGE(numbers!C17:C21)</f>
         <v>0.96426638503999995</v>
       </c>
       <c r="D28" s="14">
-        <f>numbers!J22</f>
-        <v>0.98294628853333332</v>
+        <f>numbers!F17</f>
+        <v>0.96679999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
